--- a/20180126_SmartCut/Meeting/20190315 Meeting/Time History/20190305 time history.xlsx
+++ b/20180126_SmartCut/Meeting/20190315 Meeting/Time History/20190305 time history.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Meeting\20190315 Meeting\Time History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43110CC2-26AA-412D-9C33-7B28CD112D81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,9 +117,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,7 +166,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -447,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,53 +458,54 @@
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -515,47 +515,47 @@
       <c r="C2" s="1">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <f>$C$11/C2</f>
         <v>3.5087719298245612</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <f>$C$12/C2</f>
         <v>4.6783625730994149</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>11</v>
-      </c>
       <c r="L2" s="1">
-        <f>$B2*J2</f>
-        <v>1.1700000000000002E-2</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="1">
-        <f>$B2*K2</f>
-        <v>1.2870000000000001</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1">
-        <f>J2*$C2</f>
-        <v>1.7100000000000001E-2</v>
+        <f>$B2*L2</f>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="O2" s="1">
-        <f>K2*$C2</f>
-        <v>1.8810000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f>$B2*M2</f>
+        <v>1.7550000000000001</v>
+      </c>
+      <c r="P2" s="1">
+        <f>L2*$C2</f>
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>M2*$C2</f>
+        <v>2.5650000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,38 +565,38 @@
       <c r="C3" s="1">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D8" si="0">$C$11/C3</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E8" si="0">$C$11/C3</f>
         <v>0.87847730600292817</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E8" si="1">$C$12/C3</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F8" si="1">$C$12/C3</f>
         <v>1.171303074670571</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L6" si="2">$B3*J3</f>
-        <v>4.47E-3</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M6" si="3">$B3*K3</f>
-        <v>1.341</v>
+        <v>3.5</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N6" si="4">J3*$C3</f>
-        <v>6.830000000000001E-3</v>
+        <f t="shared" ref="N3:N6" si="2">$B3*L3</f>
+        <v>4.4700000000000004E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O6" si="5">K3*$C3</f>
-        <v>2.0490000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O3:O6" si="3">$B3*M3</f>
+        <v>1.5645</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P6" si="4">L3*$C3</f>
+        <v>6.8300000000000013E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q6" si="5">M3*$C3</f>
+        <v>2.3905000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,38 +606,38 @@
       <c r="C4" s="1">
         <v>1.234</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0.48622366288492708</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>0.64829821717990277</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
       <c r="L4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>4.9800000000000001E-3</v>
-      </c>
-      <c r="M4" s="1">
+        <v>4.9800000000000004E-2</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="3"/>
-        <v>1.494</v>
-      </c>
-      <c r="N4" s="1">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="4"/>
-        <v>1.234E-2</v>
-      </c>
-      <c r="O4" s="1">
+        <v>0.12340000000000001</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="5"/>
-        <v>3.702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,38 +647,38 @@
       <c r="C5" s="1">
         <v>1.383</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.43383947939262468</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>0.57845263919016632</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.5</v>
-      </c>
       <c r="L5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>5.11E-3</v>
-      </c>
-      <c r="M5" s="1">
+        <v>5.1100000000000007E-2</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="3"/>
-        <v>1.2775000000000001</v>
-      </c>
-      <c r="N5" s="1">
+        <v>1.022</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="4"/>
-        <v>1.383E-2</v>
-      </c>
-      <c r="O5" s="1">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="5"/>
-        <v>3.4575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -688,38 +688,38 @@
       <c r="C6" s="1">
         <v>0.41399999999999998</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>1.9323671497584543</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1">
         <v>6</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>2.14E-3</v>
-      </c>
-      <c r="M6" s="1">
+        <v>4.2800000000000005E-2</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="3"/>
         <v>1.284</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="4"/>
-        <v>4.1399999999999996E-3</v>
-      </c>
-      <c r="O6" s="1">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="5"/>
         <v>2.484</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,16 +729,16 @@
       <c r="C7" s="1">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2.3255813953488369</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>3.1007751937984498</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -748,16 +748,16 @@
       <c r="C8" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>1.9672131147540983</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>2.6229508196721314</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
